--- a/开发日志.xlsx
+++ b/开发日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Porject Porject</t>
   </si>
@@ -45,7 +45,7 @@
   </si>
   <si>
     <t>程序：
-美术：
+美术：盗贼、主角、剑士人设概念
 策划：</t>
   </si>
   <si>
@@ -55,6 +55,11 @@
   </si>
   <si>
     <t>2月20日（概念阶段）</t>
+  </si>
+  <si>
+    <t>程序：
+美术：
+策划：</t>
   </si>
   <si>
     <t>2月21日（概念阶段）</t>
@@ -1111,7 +1116,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J4"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1242,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1261,16 +1266,16 @@
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1279,16 +1284,16 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1297,16 +1302,16 @@
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1315,16 +1320,16 @@
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1333,16 +1338,16 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1351,16 +1356,16 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1369,16 +1374,16 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1387,16 +1392,16 @@
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1408,13 +1413,13 @@
         <v>44986</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1426,13 +1431,13 @@
         <v>44987</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1444,13 +1449,13 @@
         <v>44988</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1462,13 +1467,13 @@
         <v>44989</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1480,13 +1485,13 @@
         <v>44990</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1498,13 +1503,13 @@
         <v>44991</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>

--- a/开发日志.xlsx
+++ b/开发日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Porject Porject</t>
   </si>
@@ -57,14 +57,24 @@
     <t>2月20日（概念阶段）</t>
   </si>
   <si>
+    <t>程序：分工
+美术：全部角色定向；像素比例 
+策划：</t>
+  </si>
+  <si>
+    <t>程序：demo（移动、寻路、伤害）
+美术：翼兵定向；炼金术士定向；部分角色战场形象绘画
+策划：关卡衔接；资源平衡；状态体系；地形</t>
+  </si>
+  <si>
+    <t>2月21日（概念阶段）</t>
+  </si>
+  <si>
     <t>程序：
 美术：
 策划：</t>
   </si>
   <si>
-    <t>2月21日（概念阶段）</t>
-  </si>
-  <si>
     <t>2月22日（概念阶段）</t>
   </si>
   <si>
@@ -84,6 +94,9 @@
   </si>
   <si>
     <t>2月28日（概念阶段）</t>
+  </si>
+  <si>
+    <t>demo（移动、寻路、伤害）</t>
   </si>
 </sst>
 </file>
@@ -96,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +125,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +289,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -512,6 +537,147 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,36 +799,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,98 +835,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,7 +957,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1124,6 +1347,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="5" max="5" width="42.8888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="25.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1224,7 +1448,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="1:10">
+    <row r="8" ht="70" customHeight="1" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1477,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1266,16 +1490,16 @@
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1284,16 +1508,16 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1302,16 +1526,16 @@
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1320,16 +1544,16 @@
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1338,16 +1562,16 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1356,16 +1580,16 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1373,71 +1597,74 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" ht="50" customHeight="1" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="1:11">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
-      <c r="A18" s="9">
+      <c r="A18" s="19">
         <v>44986</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
-      <c r="A19" s="9">
+      <c r="A19" s="25">
         <v>44987</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1445,17 +1672,17 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
-      <c r="A20" s="9">
+      <c r="A20" s="25">
         <v>44988</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1463,17 +1690,17 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
-      <c r="A21" s="9">
+      <c r="A21" s="25">
         <v>44989</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1481,17 +1708,17 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:10">
-      <c r="A22" s="9">
+      <c r="A22" s="25">
         <v>44990</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1499,17 +1726,17 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:10">
-      <c r="A23" s="9">
+      <c r="A23" s="25">
         <v>44991</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>

--- a/开发日志.xlsx
+++ b/开发日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Porject Porject</t>
   </si>
@@ -75,10 +75,20 @@
 策划：</t>
   </si>
   <si>
+    <t>程序：A*算法
+美术：
+策划：</t>
+  </si>
+  <si>
     <t>2月22日（概念阶段）</t>
   </si>
   <si>
     <t>2月23日（概念阶段）</t>
+  </si>
+  <si>
+    <t>程序：伤害、时序、卡牌
+美术：像素理解
+策划：关卡衔接；资源平衡；状态体系；地形</t>
   </si>
   <si>
     <t>2月24日（概念阶段）</t>
@@ -929,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1338,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1499,7 +1506,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1508,7 +1515,7 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -1517,7 +1524,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1526,16 +1533,16 @@
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1544,7 +1551,7 @@
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -1562,7 +1569,7 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -1580,7 +1587,7 @@
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -1598,7 +1605,7 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -1616,7 +1623,7 @@
     </row>
     <row r="17" ht="50" customHeight="1" spans="1:11">
       <c r="A17" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
@@ -1629,10 +1636,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="s">
-        <v>22</v>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="1:10">
@@ -1648,13 +1655,13 @@
       <c r="F18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="1:10">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>44987</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1672,7 +1679,7 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:10">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>44988</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1690,7 +1697,7 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="1:10">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>44989</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1708,7 +1715,7 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="1:10">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>44990</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1726,7 +1733,7 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="1:10">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>44991</v>
       </c>
       <c r="B23" s="5" t="s">
